--- a/oxcat_databases.xlsx
+++ b/oxcat_databases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgiarichards/Desktop/Python/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgiarichards/Desktop/Python/OxCatOpioids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D5E2C7-C220-9646-9CF7-6FF81E556B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12714A24-CF25-B442-AE60-D7238B432413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56120" yWindow="6500" windowWidth="28040" windowHeight="17440" xr2:uid="{D86F2C73-1FD0-F443-AB2F-29D9543050E4}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="11740" windowHeight="19440" xr2:uid="{D86F2C73-1FD0-F443-AB2F-29D9543050E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
